--- a/lojas_indexadas.xlsx
+++ b/lojas_indexadas.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto.000\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -19,55 +27,121 @@
     <t>nome da loja</t>
   </si>
   <si>
-    <t>loja 1</t>
-  </si>
-  <si>
-    <t>loja 2</t>
-  </si>
-  <si>
-    <t>loja 3</t>
-  </si>
-  <si>
-    <t>loja 4</t>
-  </si>
-  <si>
-    <t>loja 5</t>
-  </si>
-  <si>
-    <t>loja 6</t>
-  </si>
-  <si>
-    <t>loja 7</t>
-  </si>
-  <si>
-    <t>loja 8</t>
-  </si>
-  <si>
-    <t>loja 9</t>
-  </si>
-  <si>
-    <t>loja 10</t>
+    <t>loja1</t>
+  </si>
+  <si>
+    <t>loja2</t>
+  </si>
+  <si>
+    <t>loja3</t>
+  </si>
+  <si>
+    <t>loja4</t>
+  </si>
+  <si>
+    <t>loja5</t>
+  </si>
+  <si>
+    <t>loja6</t>
+  </si>
+  <si>
+    <t>loja7</t>
+  </si>
+  <si>
+    <t>loja8</t>
+  </si>
+  <si>
+    <t>loja9</t>
+  </si>
+  <si>
+    <t>loja10</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja1.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja2.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja3.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja4.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja5.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja6.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja7.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja8.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja9.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Feirinha-Roberto-Fernandes-Foz/Feirinha-Foz1/blob/338d47e1a518e95ac4c7548ef858abd5ec8e0cdb/loja10.png</t>
+  </si>
+  <si>
+    <t>link github</t>
+  </si>
+  <si>
+    <t>endereço</t>
+  </si>
+  <si>
+    <t>telefone</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 101</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 102</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 103</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 104</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 105</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 106</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 107</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 108</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 109</t>
+  </si>
+  <si>
+    <t>Rua Morenitas, 110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,39 +149,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -297,108 +377,216 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="111.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>4599999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>4599999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>4599999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>4599999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>4599999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>4599999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>4599999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>4599999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>4599999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>4599999910</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>